--- a/data/raw/ACH/ACH_Payment.xlsx
+++ b/data/raw/ACH/ACH_Payment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\data\raw\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CF66AB-412C-4294-A3D9-231C4952E209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F5A223-6066-4353-872E-7AF536E8D9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30760" yWindow="3000" windowWidth="15950" windowHeight="15430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34980" yWindow="3420" windowWidth="26530" windowHeight="13970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Amount</t>
   </si>
@@ -77,28 +77,13 @@
     <t>Travel Reimbursement 24-29 March Indian Head</t>
   </si>
   <si>
-    <t>345678</t>
-  </si>
-  <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>New Pig</t>
-  </si>
-  <si>
-    <t>589643-INV-789</t>
-  </si>
-  <si>
-    <t>New Drum lifter</t>
-  </si>
-  <si>
-    <t>Hazardous waste removal from Hanscom AFB</t>
-  </si>
-  <si>
-    <t>589643-INV-78938</t>
-  </si>
-  <si>
-    <t>Forklift bushings</t>
+    <t>CohnReznick</t>
+  </si>
+  <si>
+    <t>3459662</t>
+  </si>
+  <si>
+    <t>April Invoice</t>
   </si>
 </sst>
 </file>
@@ -429,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -511,54 +496,30 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C5" s="1">
-        <v>45413</v>
+        <v>45398</v>
       </c>
       <c r="D5">
-        <v>12348.12</v>
+        <v>7074.37</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1">
-        <v>45417</v>
-      </c>
-      <c r="D6">
-        <v>6354.18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1">
-        <v>45417</v>
-      </c>
-      <c r="D7">
-        <v>3598</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/raw/ACH/ACH_Payment.xlsx
+++ b/data/raw/ACH/ACH_Payment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\data\raw\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F5A223-6066-4353-872E-7AF536E8D9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDBA095-AD96-4E0A-B57C-093D3536C1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34980" yWindow="3420" windowWidth="26530" windowHeight="13970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35610" yWindow="2980" windowWidth="33930" windowHeight="15650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Amount</t>
   </si>
@@ -84,6 +84,33 @@
   </si>
   <si>
     <t>April Invoice</t>
+  </si>
+  <si>
+    <t>Della-Volle</t>
+  </si>
+  <si>
+    <t>3/17/2024</t>
+  </si>
+  <si>
+    <t>Souda Bay</t>
+  </si>
+  <si>
+    <t>Sigonella</t>
+  </si>
+  <si>
+    <t>5/3/2024</t>
+  </si>
+  <si>
+    <t>5/23/2024</t>
+  </si>
+  <si>
+    <t>Yokoska virtual</t>
+  </si>
+  <si>
+    <t>4/26/2024</t>
+  </si>
+  <si>
+    <t>Rota, Spain</t>
   </si>
 </sst>
 </file>
@@ -412,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -512,14 +539,102 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45372</v>
+      </c>
+      <c r="D6">
+        <v>1600</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45415</v>
+      </c>
+      <c r="D7">
+        <v>1920</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45435</v>
+      </c>
+      <c r="D8">
+        <v>1280</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45408</v>
+      </c>
+      <c r="D9">
+        <v>2080</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/raw/ACH/ACH_Payment.xlsx
+++ b/data/raw/ACH/ACH_Payment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\data\raw\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDBA095-AD96-4E0A-B57C-093D3536C1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5082937-4955-4ED4-A83E-987B6E194103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35610" yWindow="2980" windowWidth="33930" windowHeight="15650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27020" yWindow="3490" windowWidth="24930" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Amount</t>
   </si>
@@ -111,13 +111,22 @@
   </si>
   <si>
     <t>Rota, Spain</t>
+  </si>
+  <si>
+    <t>Clean Harbors</t>
+  </si>
+  <si>
+    <t>Pickup</t>
+  </si>
+  <si>
+    <t>1234567</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +138,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -154,11 +170,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,7 +461,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -607,7 +626,21 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B10" s="2"/>
+      <c r="A10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45408</v>
+      </c>
+      <c r="D10">
+        <v>7345</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>

--- a/data/raw/ACH/ACH_Payment.xlsx
+++ b/data/raw/ACH/ACH_Payment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\data\raw\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5082937-4955-4ED4-A83E-987B6E194103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D526F617-922F-4C58-A3BA-6B7AE5C46F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27020" yWindow="3490" windowWidth="24930" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12830" yWindow="4120" windowWidth="29780" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,26 +36,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Amount</t>
   </si>
   <si>
-    <t>Monroe</t>
-  </si>
-  <si>
-    <t>5/5/2024 2</t>
-  </si>
-  <si>
-    <t>5/5/2024 3</t>
-  </si>
-  <si>
     <t>Wood, Steve</t>
   </si>
   <si>
-    <t>3/25/2024</t>
-  </si>
-  <si>
     <t>Invoice Number</t>
   </si>
   <si>
@@ -68,65 +56,77 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Reimbursement for airfare</t>
-  </si>
-  <si>
-    <t>Reimbursement for communing airfare</t>
-  </si>
-  <si>
-    <t>Travel Reimbursement 24-29 March Indian Head</t>
-  </si>
-  <si>
-    <t>CohnReznick</t>
-  </si>
-  <si>
-    <t>3459662</t>
-  </si>
-  <si>
-    <t>April Invoice</t>
-  </si>
-  <si>
-    <t>Della-Volle</t>
-  </si>
-  <si>
-    <t>3/17/2024</t>
-  </si>
-  <si>
-    <t>Souda Bay</t>
-  </si>
-  <si>
-    <t>Sigonella</t>
-  </si>
-  <si>
-    <t>5/3/2024</t>
-  </si>
-  <si>
-    <t>5/23/2024</t>
-  </si>
-  <si>
-    <t>Yokoska virtual</t>
-  </si>
-  <si>
-    <t>4/26/2024</t>
-  </si>
-  <si>
-    <t>Rota, Spain</t>
-  </si>
-  <si>
     <t>Clean Harbors</t>
   </si>
   <si>
-    <t>Pickup</t>
-  </si>
-  <si>
-    <t>1234567</t>
+    <t>Czysz 2</t>
+  </si>
+  <si>
+    <t>6/1/2024</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>Interest Payment</t>
+  </si>
+  <si>
+    <t>3460 Rockefeller Ct.</t>
+  </si>
+  <si>
+    <t>1004976013</t>
+  </si>
+  <si>
+    <t>Crystal Clean</t>
+  </si>
+  <si>
+    <t>18610831</t>
+  </si>
+  <si>
+    <t>18658565</t>
+  </si>
+  <si>
+    <t>Spheeris</t>
+  </si>
+  <si>
+    <t>5/31/2024</t>
+  </si>
+  <si>
+    <t>BARSTOW 5/6 - 5/9</t>
+  </si>
+  <si>
+    <t>McCrea</t>
+  </si>
+  <si>
+    <t>5/31/2024 - 1</t>
+  </si>
+  <si>
+    <t>HONOLULU 5/14 - 5/17</t>
+  </si>
+  <si>
+    <t>5/31/2024 - 2</t>
+  </si>
+  <si>
+    <t>CHINHEA 5/20-5/24</t>
+  </si>
+  <si>
+    <t>WHIDBEY 5/20-5/24</t>
+  </si>
+  <si>
+    <t>Sonnier, Eddie</t>
+  </si>
+  <si>
+    <t>EL CENTRO 5/20-5/23</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="m/d/yy;@"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,10 +144,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -170,12 +176,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -458,216 +473,232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>45417</v>
-      </c>
-      <c r="D2">
-        <v>548.95000000000005</v>
+      <c r="C2" s="7">
+        <v>45444</v>
+      </c>
+      <c r="D2" s="5">
+        <v>17500</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1">
-        <v>45417</v>
-      </c>
-      <c r="D3">
-        <v>599</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="7">
+        <v>45343</v>
+      </c>
+      <c r="D3" s="6">
+        <v>13881.02</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>45383</v>
-      </c>
-      <c r="D4">
-        <v>383.5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="7">
+        <v>45387</v>
+      </c>
+      <c r="D4" s="6">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1">
-        <v>45398</v>
-      </c>
-      <c r="D5">
-        <v>7074.37</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="C5" s="7">
+        <v>45415</v>
+      </c>
+      <c r="D5" s="6">
+        <v>146</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1">
-        <v>45372</v>
-      </c>
-      <c r="D6">
-        <v>1600</v>
+      <c r="C6" s="7">
+        <v>45421</v>
+      </c>
+      <c r="D6" s="5">
+        <v>352</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1">
-        <v>45415</v>
-      </c>
-      <c r="D7">
-        <v>1920</v>
+      <c r="C7" s="7">
+        <v>45429</v>
+      </c>
+      <c r="D7" s="5">
+        <v>883.88</v>
       </c>
       <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1">
-        <v>45435</v>
-      </c>
-      <c r="D8">
-        <v>1280</v>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="7">
+        <v>45436</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1518.88</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="1">
-        <v>45408</v>
-      </c>
-      <c r="D9">
-        <v>2080</v>
+      <c r="A9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="7">
+        <v>45436</v>
+      </c>
+      <c r="D9" s="5">
+        <v>383.5</v>
       </c>
       <c r="E9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+      <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="1">
-        <v>45408</v>
-      </c>
-      <c r="D10">
-        <v>7345</v>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="7">
+        <v>45436</v>
+      </c>
+      <c r="D10" s="5">
+        <v>383.5</v>
       </c>
       <c r="E10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="7">
+        <v>45435</v>
+      </c>
+      <c r="D11" s="5">
+        <v>517.41999999999996</v>
+      </c>
+      <c r="E11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B11" s="2"/>
-    </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B12" s="2"/>
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="7">
+        <v>45444</v>
+      </c>
+      <c r="D12" s="5">
+        <v>11000</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B13" s="2"/>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B14" s="2"/>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B15" s="2"/>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B16" s="2"/>
+      <c r="B16" s="1"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B17" s="2"/>
+      <c r="B17" s="1"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B19" s="2"/>
+      <c r="B18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/raw/ACH/ACH_Payment.xlsx
+++ b/data/raw/ACH/ACH_Payment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\data\raw\ACH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\Finance-Model\data\raw\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D526F617-922F-4C58-A3BA-6B7AE5C46F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DF89B0-54D1-466A-9EF3-0BAAE3DF7438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12830" yWindow="4120" windowWidth="29780" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="823" windowWidth="18514" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Amount</t>
   </si>
   <si>
-    <t>Wood, Steve</t>
-  </si>
-  <si>
     <t>Invoice Number</t>
   </si>
   <si>
@@ -59,64 +56,16 @@
     <t>Clean Harbors</t>
   </si>
   <si>
-    <t>Czysz 2</t>
-  </si>
-  <si>
-    <t>6/1/2024</t>
-  </si>
-  <si>
-    <t>Rent</t>
-  </si>
-  <si>
-    <t>Interest Payment</t>
-  </si>
-  <si>
-    <t>3460 Rockefeller Ct.</t>
-  </si>
-  <si>
-    <t>1004976013</t>
-  </si>
-  <si>
-    <t>Crystal Clean</t>
-  </si>
-  <si>
-    <t>18610831</t>
-  </si>
-  <si>
-    <t>18658565</t>
-  </si>
-  <si>
-    <t>Spheeris</t>
-  </si>
-  <si>
-    <t>5/31/2024</t>
-  </si>
-  <si>
-    <t>BARSTOW 5/6 - 5/9</t>
-  </si>
-  <si>
-    <t>McCrea</t>
-  </si>
-  <si>
-    <t>5/31/2024 - 1</t>
-  </si>
-  <si>
-    <t>HONOLULU 5/14 - 5/17</t>
-  </si>
-  <si>
-    <t>5/31/2024 - 2</t>
-  </si>
-  <si>
-    <t>CHINHEA 5/20-5/24</t>
-  </si>
-  <si>
-    <t>WHIDBEY 5/20-5/24</t>
-  </si>
-  <si>
-    <t>Sonnier, Eddie</t>
-  </si>
-  <si>
-    <t>EL CENTRO 5/20-5/23</t>
+    <t>Republic</t>
+  </si>
+  <si>
+    <t>New Pig</t>
+  </si>
+  <si>
+    <t>1004985554</t>
+  </si>
+  <si>
+    <t>24256823-00</t>
   </si>
 </sst>
 </file>
@@ -124,9 +73,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +104,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -176,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -190,7 +146,10 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -476,228 +435,138 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.3828125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.07421875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.07421875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1007551</v>
+      </c>
+      <c r="C2" s="7">
+        <v>45324</v>
+      </c>
+      <c r="D2" s="5">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7">
+        <v>45352</v>
+      </c>
+      <c r="D3" s="5">
+        <v>15139.55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7">
-        <v>45444</v>
-      </c>
-      <c r="D2" s="5">
-        <v>17500</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="7">
-        <v>45343</v>
-      </c>
-      <c r="D3" s="6">
-        <v>13881.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="C4" s="7">
-        <v>45387</v>
-      </c>
-      <c r="D4" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="7">
-        <v>45415</v>
-      </c>
-      <c r="D5" s="6">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="7">
-        <v>45421</v>
-      </c>
-      <c r="D6" s="5">
-        <v>352</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="7">
-        <v>45429</v>
-      </c>
-      <c r="D7" s="5">
-        <v>883.88</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="7">
-        <v>45436</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1518.88</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="7">
-        <v>45436</v>
-      </c>
-      <c r="D9" s="5">
-        <v>383.5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="7">
-        <v>45436</v>
-      </c>
-      <c r="D10" s="5">
-        <v>383.5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="7">
-        <v>45435</v>
-      </c>
-      <c r="D11" s="5">
-        <v>517.41999999999996</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="7">
-        <v>45444</v>
-      </c>
-      <c r="D12" s="5">
-        <v>11000</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>45245</v>
+      </c>
+      <c r="D4" s="5">
+        <v>11338.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B10" s="3"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B12" s="1"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
     </row>
   </sheetData>

--- a/data/raw/ACH/ACH_Payment.xlsx
+++ b/data/raw/ACH/ACH_Payment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\data\raw\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D526F617-922F-4C58-A3BA-6B7AE5C46F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D7957F-C7E7-4D1D-9E01-DE48A5876E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12830" yWindow="4120" windowWidth="29780" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25730" yWindow="3490" windowWidth="25620" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Amount</t>
   </si>
@@ -98,15 +98,9 @@
     <t>McCrea</t>
   </si>
   <si>
-    <t>5/31/2024 - 1</t>
-  </si>
-  <si>
     <t>HONOLULU 5/14 - 5/17</t>
   </si>
   <si>
-    <t>5/31/2024 - 2</t>
-  </si>
-  <si>
     <t>CHINHEA 5/20-5/24</t>
   </si>
   <si>
@@ -117,6 +111,15 @@
   </si>
   <si>
     <t>EL CENTRO 5/20-5/23</t>
+  </si>
+  <si>
+    <t>5/17/2024</t>
+  </si>
+  <si>
+    <t>5/24/2024</t>
+  </si>
+  <si>
+    <t>5/23/2024</t>
   </si>
 </sst>
 </file>
@@ -124,7 +127,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -190,7 +193,7 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -476,7 +479,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -525,7 +528,7 @@
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="7">
@@ -539,7 +542,7 @@
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="7">
@@ -553,7 +556,7 @@
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="7">
@@ -567,7 +570,7 @@
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="7">
@@ -584,8 +587,8 @@
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>20</v>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C7" s="7">
         <v>45429</v>
@@ -594,15 +597,15 @@
         <v>883.88</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>22</v>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C8" s="7">
         <v>45436</v>
@@ -611,15 +614,15 @@
         <v>1518.88</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C9" s="7">
         <v>45436</v>
@@ -628,15 +631,15 @@
         <v>383.5</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C10" s="7">
         <v>45436</v>
@@ -645,15 +648,15 @@
         <v>383.5</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>17</v>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C11" s="7">
         <v>45435</v>
@@ -662,7 +665,7 @@
         <v>517.41999999999996</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">

--- a/data/raw/ACH/ACH_Payment.xlsx
+++ b/data/raw/ACH/ACH_Payment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\data\raw\ACH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\Finance-Model\data\raw\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D7957F-C7E7-4D1D-9E01-DE48A5876E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F45C24-E15F-457E-842E-8EE918AD903E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25730" yWindow="3490" windowWidth="25620" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4230" yWindow="770" windowWidth="24700" windowHeight="19990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Amount</t>
   </si>
   <si>
-    <t>Wood, Steve</t>
-  </si>
-  <si>
     <t>Invoice Number</t>
   </si>
   <si>
@@ -59,77 +56,96 @@
     <t>Clean Harbors</t>
   </si>
   <si>
-    <t>Czysz 2</t>
-  </si>
-  <si>
-    <t>6/1/2024</t>
-  </si>
-  <si>
-    <t>Rent</t>
-  </si>
-  <si>
-    <t>Interest Payment</t>
-  </si>
-  <si>
-    <t>3460 Rockefeller Ct.</t>
-  </si>
-  <si>
-    <t>1004976013</t>
-  </si>
-  <si>
     <t>Crystal Clean</t>
   </si>
   <si>
-    <t>18610831</t>
-  </si>
-  <si>
-    <t>18658565</t>
-  </si>
-  <si>
-    <t>Spheeris</t>
-  </si>
-  <si>
-    <t>5/31/2024</t>
-  </si>
-  <si>
-    <t>BARSTOW 5/6 - 5/9</t>
-  </si>
-  <si>
-    <t>McCrea</t>
-  </si>
-  <si>
-    <t>HONOLULU 5/14 - 5/17</t>
-  </si>
-  <si>
-    <t>CHINHEA 5/20-5/24</t>
-  </si>
-  <si>
-    <t>WHIDBEY 5/20-5/24</t>
-  </si>
-  <si>
-    <t>Sonnier, Eddie</t>
-  </si>
-  <si>
-    <t>EL CENTRO 5/20-5/23</t>
-  </si>
-  <si>
-    <t>5/17/2024</t>
-  </si>
-  <si>
-    <t>5/24/2024</t>
-  </si>
-  <si>
-    <t>5/23/2024</t>
+    <t>AECOM</t>
+  </si>
+  <si>
+    <t>CareFirst BlueCross</t>
+  </si>
+  <si>
+    <t>241230000562</t>
+  </si>
+  <si>
+    <t>Graves, S</t>
+  </si>
+  <si>
+    <t>Intergulf Corp</t>
+  </si>
+  <si>
+    <t>000000542717-IN</t>
+  </si>
+  <si>
+    <t>Materials Handling</t>
+  </si>
+  <si>
+    <t>MATHESON TRI-GAS</t>
+  </si>
+  <si>
+    <t>HZT2024-001</t>
+  </si>
+  <si>
+    <t>EW2445-CECOS</t>
+  </si>
+  <si>
+    <t>AA12-111</t>
+  </si>
+  <si>
+    <t>AA12-112</t>
+  </si>
+  <si>
+    <t>C400-001</t>
+  </si>
+  <si>
+    <t>1005045925</t>
+  </si>
+  <si>
+    <t>18680479</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>1/10/24-1/24/24</t>
+  </si>
+  <si>
+    <t>3/4/24-3/7/24</t>
+  </si>
+  <si>
+    <t>06/04/2024</t>
+  </si>
+  <si>
+    <t>ID Discovery</t>
+  </si>
+  <si>
+    <t>00000053489-IN</t>
+  </si>
+  <si>
+    <t>5029354595</t>
+  </si>
+  <si>
+    <t>5029707531</t>
+  </si>
+  <si>
+    <t>0029733733</t>
+  </si>
+  <si>
+    <t>The Shipley Group</t>
+  </si>
+  <si>
+    <t>Czysz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="m/d/yy"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00;\-#,##0.00;* ??"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,15 +162,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -179,23 +188,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -487,221 +492,267 @@
     <col min="1" max="1" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D2" s="4">
+        <v>131610.79999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3">
+        <v>45322</v>
+      </c>
+      <c r="D3" s="4">
+        <v>118180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3">
+        <v>45365</v>
+      </c>
+      <c r="D4" s="4">
+        <v>14127.86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>45414</v>
+      </c>
+      <c r="D5" s="4">
+        <v>26126.799999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7">
-        <v>45444</v>
-      </c>
-      <c r="D2" s="5">
-        <v>17500</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3">
+        <v>45425</v>
+      </c>
+      <c r="D6" s="4">
+        <v>7496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="7">
-        <v>45343</v>
-      </c>
-      <c r="D3" s="6">
-        <v>13881.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="7">
-        <v>45387</v>
-      </c>
-      <c r="D4" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="7">
-        <v>45415</v>
-      </c>
-      <c r="D5" s="6">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="7">
-        <v>45421</v>
-      </c>
-      <c r="D6" s="5">
-        <v>352</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="7">
-        <v>45429</v>
-      </c>
-      <c r="D7" s="5">
-        <v>883.88</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3">
+        <v>45426</v>
+      </c>
+      <c r="D7" s="4">
+        <v>697.19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="7">
-        <v>45436</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1518.88</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45356</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4500</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="7">
-        <v>45436</v>
-      </c>
-      <c r="D9" s="5">
-        <v>383.5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3">
+        <v>45315</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1225.49</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3">
+        <v>45358</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1383.58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3">
+        <v>45447</v>
+      </c>
+      <c r="D11" s="4">
+        <v>89.52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="7">
-        <v>45436</v>
-      </c>
-      <c r="D10" s="5">
-        <v>383.5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3">
+        <v>45383</v>
+      </c>
+      <c r="D12" s="4">
+        <v>10010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3">
+        <v>45397</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1401.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3">
+        <v>45432</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1694.85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="3">
+        <v>45387</v>
+      </c>
+      <c r="D15" s="4">
+        <v>624.34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="3">
+        <v>45416</v>
+      </c>
+      <c r="D16" s="4">
+        <v>624.34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3">
+        <v>45433</v>
+      </c>
+      <c r="D17" s="4">
+        <v>326.39999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="7">
-        <v>45435</v>
-      </c>
-      <c r="D11" s="5">
-        <v>517.41999999999996</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="7">
-        <v>45444</v>
-      </c>
-      <c r="D12" s="5">
+      <c r="C18" s="3">
+        <v>45359</v>
+      </c>
+      <c r="D18" s="4">
         <v>11000</v>
       </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D19" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/raw/ACH/ACH_Payment.xlsx
+++ b/data/raw/ACH/ACH_Payment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\Finance-Model\data\raw\ACH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\data\raw\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F45C24-E15F-457E-842E-8EE918AD903E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8427ACF0-5E07-456B-91E4-1A3D1E343EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="770" windowWidth="24700" windowHeight="19990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36340" yWindow="1690" windowWidth="34040" windowHeight="19070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Amount</t>
   </si>
@@ -53,88 +53,40 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Clean Harbors</t>
-  </si>
-  <si>
-    <t>Crystal Clean</t>
-  </si>
-  <si>
-    <t>AECOM</t>
-  </si>
-  <si>
-    <t>CareFirst BlueCross</t>
-  </si>
-  <si>
-    <t>241230000562</t>
-  </si>
-  <si>
-    <t>Graves, S</t>
-  </si>
-  <si>
-    <t>Intergulf Corp</t>
-  </si>
-  <si>
-    <t>000000542717-IN</t>
-  </si>
-  <si>
-    <t>Materials Handling</t>
-  </si>
-  <si>
-    <t>MATHESON TRI-GAS</t>
-  </si>
-  <si>
-    <t>HZT2024-001</t>
-  </si>
-  <si>
-    <t>EW2445-CECOS</t>
-  </si>
-  <si>
-    <t>AA12-111</t>
-  </si>
-  <si>
-    <t>AA12-112</t>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Nissley, Pete</t>
+  </si>
+  <si>
+    <t>6/18/2024</t>
+  </si>
+  <si>
+    <t>Travel to and from Kirtland</t>
+  </si>
+  <si>
+    <t>AA13-001</t>
+  </si>
+  <si>
+    <t>Sonnier, Eddie</t>
+  </si>
+  <si>
+    <t>ee reimb 6.6.24</t>
+  </si>
+  <si>
+    <t>Computer Repair</t>
+  </si>
+  <si>
+    <t>Tannenbaum</t>
+  </si>
+  <si>
+    <t>6/3/24-6/7/24</t>
+  </si>
+  <si>
+    <t>CECOS class in Silverdale</t>
   </si>
   <si>
     <t>C400-001</t>
-  </si>
-  <si>
-    <t>1005045925</t>
-  </si>
-  <si>
-    <t>18680479</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>1/10/24-1/24/24</t>
-  </si>
-  <si>
-    <t>3/4/24-3/7/24</t>
-  </si>
-  <si>
-    <t>06/04/2024</t>
-  </si>
-  <si>
-    <t>ID Discovery</t>
-  </si>
-  <si>
-    <t>00000053489-IN</t>
-  </si>
-  <si>
-    <t>5029354595</t>
-  </si>
-  <si>
-    <t>5029707531</t>
-  </si>
-  <si>
-    <t>0029733733</t>
-  </si>
-  <si>
-    <t>The Shipley Group</t>
-  </si>
-  <si>
-    <t>Czysz</t>
   </si>
 </sst>
 </file>
@@ -145,7 +97,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;\-#,##0.00;* ??"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +116,12 @@
     <font>
       <sz val="9"/>
       <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -188,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -201,6 +159,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -496,7 +458,7 @@
     <col min="5" max="5" width="41.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -512,244 +474,147 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="3">
-        <v>45291</v>
-      </c>
-      <c r="D2" s="4">
-        <v>131610.79999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
+      <c r="C2" s="7">
+        <v>45461</v>
+      </c>
+      <c r="D2">
+        <v>638.54999999999995</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="3">
-        <v>45322</v>
-      </c>
-      <c r="D3" s="4">
-        <v>118180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="C3" s="7">
+        <v>45456</v>
+      </c>
+      <c r="D3">
+        <v>104.94</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="3">
-        <v>45365</v>
-      </c>
-      <c r="D4" s="4">
-        <v>14127.86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3">
-        <v>45414</v>
-      </c>
-      <c r="D5" s="4">
-        <v>26126.799999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="3">
-        <v>45425</v>
-      </c>
-      <c r="D6" s="4">
-        <v>7496</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="3">
-        <v>45426</v>
-      </c>
-      <c r="D7" s="4">
-        <v>697.19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="3">
-        <v>45356</v>
-      </c>
-      <c r="D8" s="4">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="3">
-        <v>45315</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1225.49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="3">
-        <v>45358</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1383.58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="3">
-        <v>45447</v>
-      </c>
-      <c r="D11" s="4">
-        <v>89.52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="7">
+        <v>45454</v>
+      </c>
+      <c r="D4">
+        <v>6461.38</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="3">
-        <v>45383</v>
-      </c>
-      <c r="D12" s="4">
-        <v>10010</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="3">
-        <v>45397</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1401.72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3">
-        <v>45432</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1694.85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="3">
-        <v>45387</v>
-      </c>
-      <c r="D15" s="4">
-        <v>624.34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="3">
-        <v>45416</v>
-      </c>
-      <c r="D16" s="4">
-        <v>624.34</v>
-      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="3">
-        <v>45433</v>
-      </c>
-      <c r="D17" s="4">
-        <v>326.39999999999998</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="3">
-        <v>45359</v>
-      </c>
-      <c r="D18" s="4">
-        <v>11000</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D19" s="5"/>

--- a/data/raw/ACH/ACH_Payment.xlsx
+++ b/data/raw/ACH/ACH_Payment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\data\raw\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8427ACF0-5E07-456B-91E4-1A3D1E343EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614584E7-242F-4460-9657-3FE11E3ECA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36340" yWindow="1690" windowWidth="34040" windowHeight="19070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32720" yWindow="2300" windowWidth="35460" windowHeight="14060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Amount</t>
   </si>
@@ -53,40 +53,58 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Job</t>
-  </si>
-  <si>
-    <t>Nissley, Pete</t>
-  </si>
-  <si>
-    <t>6/18/2024</t>
-  </si>
-  <si>
-    <t>Travel to and from Kirtland</t>
-  </si>
-  <si>
-    <t>AA13-001</t>
-  </si>
-  <si>
-    <t>Sonnier, Eddie</t>
-  </si>
-  <si>
-    <t>ee reimb 6.6.24</t>
-  </si>
-  <si>
-    <t>Computer Repair</t>
-  </si>
-  <si>
-    <t>Tannenbaum</t>
-  </si>
-  <si>
-    <t>6/3/24-6/7/24</t>
-  </si>
-  <si>
-    <t>CECOS class in Silverdale</t>
-  </si>
-  <si>
-    <t>C400-001</t>
+    <t>AECOM</t>
+  </si>
+  <si>
+    <t>Alliance Technical Group</t>
+  </si>
+  <si>
+    <t>INV55800</t>
+  </si>
+  <si>
+    <t>Crystal Clean</t>
+  </si>
+  <si>
+    <t>Dalmation</t>
+  </si>
+  <si>
+    <t>ID Discovery</t>
+  </si>
+  <si>
+    <t>HZT2024-005</t>
+  </si>
+  <si>
+    <t>Republic Services</t>
+  </si>
+  <si>
+    <t>0856-000184929</t>
+  </si>
+  <si>
+    <t>0856-000185990</t>
+  </si>
+  <si>
+    <t>6/14 - Hueneme - Ryan</t>
+  </si>
+  <si>
+    <t>Spheeris</t>
+  </si>
+  <si>
+    <t>6/10 - N Chelmsford - Spheeris</t>
+  </si>
+  <si>
+    <t>Wood, Steve</t>
+  </si>
+  <si>
+    <t>6/10 - N Chelmsford - Wood</t>
+  </si>
+  <si>
+    <t>Dr. Covella</t>
+  </si>
+  <si>
+    <t>Ryan, Michele</t>
+  </si>
+  <si>
+    <t>CECOS  - 5.21-5.23.24</t>
   </si>
 </sst>
 </file>
@@ -120,10 +138,11 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -159,10 +178,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,22 +470,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -474,131 +501,180 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B2" s="6">
+        <v>2000872553</v>
+      </c>
+      <c r="C2" s="7">
+        <v>45387</v>
+      </c>
+      <c r="D2" s="8">
+        <v>99485.97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7">
-        <v>45461</v>
-      </c>
-      <c r="D2">
-        <v>638.54999999999995</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C3" s="7">
+        <v>45387</v>
+      </c>
+      <c r="D3" s="8">
+        <v>14570</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B4" s="6">
+        <v>18736802</v>
+      </c>
+      <c r="C4" s="7">
+        <v>45457</v>
+      </c>
+      <c r="D4" s="9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B5" s="6">
+        <v>501508</v>
+      </c>
+      <c r="C5" s="7">
+        <v>45441</v>
+      </c>
+      <c r="D5" s="9">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7">
+        <v>45433</v>
+      </c>
+      <c r="D6" s="8">
+        <v>15700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="7">
-        <v>45456</v>
-      </c>
-      <c r="D3">
-        <v>104.94</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C7" s="7">
+        <v>45443</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C8" s="7">
+        <v>45412</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1829.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="7">
-        <v>45454</v>
-      </c>
-      <c r="D4">
-        <v>6461.38</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C9" s="7">
+        <v>45443</v>
+      </c>
+      <c r="D9" s="8">
+        <v>6595.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="C10" s="7">
+        <v>45457</v>
+      </c>
+      <c r="D10" s="9">
+        <v>104.28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="7">
+        <v>45453</v>
+      </c>
+      <c r="D11" s="9">
+        <v>481.58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="7">
+        <v>45453</v>
+      </c>
+      <c r="D12" s="9">
+        <v>448.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>

--- a/data/raw/ACH/ACH_Payment.xlsx
+++ b/data/raw/ACH/ACH_Payment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\data\raw\ACH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\Finance-Model\data\raw\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614584E7-242F-4460-9657-3FE11E3ECA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E475A16-EC1A-4ECB-8692-A8010F25F027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32720" yWindow="2300" windowWidth="35460" windowHeight="14060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4480" yWindow="1470" windowWidth="22170" windowHeight="18550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Amount</t>
   </si>
@@ -53,58 +53,61 @@
     <t>Description</t>
   </si>
   <si>
-    <t>AECOM</t>
-  </si>
-  <si>
-    <t>Alliance Technical Group</t>
-  </si>
-  <si>
-    <t>INV55800</t>
-  </si>
-  <si>
     <t>Crystal Clean</t>
   </si>
   <si>
-    <t>Dalmation</t>
-  </si>
-  <si>
-    <t>ID Discovery</t>
-  </si>
-  <si>
-    <t>HZT2024-005</t>
-  </si>
-  <si>
-    <t>Republic Services</t>
-  </si>
-  <si>
-    <t>0856-000184929</t>
-  </si>
-  <si>
-    <t>0856-000185990</t>
-  </si>
-  <si>
-    <t>6/14 - Hueneme - Ryan</t>
-  </si>
-  <si>
-    <t>Spheeris</t>
-  </si>
-  <si>
-    <t>6/10 - N Chelmsford - Spheeris</t>
-  </si>
-  <si>
-    <t>Wood, Steve</t>
-  </si>
-  <si>
-    <t>6/10 - N Chelmsford - Wood</t>
-  </si>
-  <si>
-    <t>Dr. Covella</t>
-  </si>
-  <si>
     <t>Ryan, Michele</t>
   </si>
   <si>
-    <t>CECOS  - 5.21-5.23.24</t>
+    <t>3460 Rockefeller Ct.</t>
+  </si>
+  <si>
+    <t>Bhate</t>
+  </si>
+  <si>
+    <t>CareFirst BlueCross</t>
+  </si>
+  <si>
+    <t>Czysz 2</t>
+  </si>
+  <si>
+    <t>Eventure HR</t>
+  </si>
+  <si>
+    <t>Pace Analytical</t>
+  </si>
+  <si>
+    <t>July '24 rent</t>
+  </si>
+  <si>
+    <t>INV-000074742</t>
+  </si>
+  <si>
+    <t>INV-000074854</t>
+  </si>
+  <si>
+    <t>241550002561</t>
+  </si>
+  <si>
+    <t>18709919</t>
+  </si>
+  <si>
+    <t>July '24 interest</t>
+  </si>
+  <si>
+    <t>INV-000312</t>
+  </si>
+  <si>
+    <t>850597</t>
+  </si>
+  <si>
+    <t>6/18 Hueneme</t>
+  </si>
+  <si>
+    <t>Braddock</t>
+  </si>
+  <si>
+    <t>April El Paso</t>
   </si>
 </sst>
 </file>
@@ -139,7 +142,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -178,16 +181,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -470,16 +473,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.81640625" bestFit="1" customWidth="1"/>
@@ -504,100 +507,100 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="6">
-        <v>2000872553</v>
-      </c>
-      <c r="C2" s="7">
-        <v>45387</v>
-      </c>
-      <c r="D2" s="8">
-        <v>99485.97</v>
+        <v>7</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="8">
+        <v>45471</v>
+      </c>
+      <c r="D2" s="9">
+        <v>11000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="7">
-        <v>45387</v>
-      </c>
-      <c r="D3" s="8">
-        <v>14570</v>
+        <v>14</v>
+      </c>
+      <c r="C3" s="8">
+        <v>45377</v>
+      </c>
+      <c r="D3" s="9">
+        <v>18043.75</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6">
-        <v>18736802</v>
-      </c>
-      <c r="C4" s="7">
-        <v>45457</v>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8">
+        <v>45422</v>
       </c>
       <c r="D4" s="9">
-        <v>58</v>
+        <v>18043.75</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6">
-        <v>501508</v>
-      </c>
-      <c r="C5" s="7">
-        <v>45441</v>
+      <c r="B5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="8">
+        <v>45446</v>
       </c>
       <c r="D5" s="9">
-        <v>810</v>
+        <v>26980.63</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="7">
-        <v>45433</v>
-      </c>
-      <c r="D6" s="8">
-        <v>15700</v>
+        <v>17</v>
+      </c>
+      <c r="C6" s="8">
+        <v>45443</v>
+      </c>
+      <c r="D6" s="9">
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="7">
-        <v>45443</v>
-      </c>
-      <c r="D7" s="8">
-        <v>1300</v>
+        <v>18</v>
+      </c>
+      <c r="C7" s="8">
+        <v>45471</v>
+      </c>
+      <c r="D7" s="9">
+        <v>17500</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="7">
-        <v>45412</v>
-      </c>
-      <c r="D8" s="8">
-        <v>1829.25</v>
+        <v>19</v>
+      </c>
+      <c r="C8" s="8">
+        <v>45467</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -605,56 +608,48 @@
         <v>12</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="7">
-        <v>45443</v>
-      </c>
-      <c r="D9" s="8">
-        <v>6595.5</v>
+        <v>20</v>
+      </c>
+      <c r="C9" s="8">
+        <v>45434</v>
+      </c>
+      <c r="D9" s="9">
+        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="7">
-        <v>45457</v>
+      <c r="C10" s="8">
+        <v>45460</v>
       </c>
       <c r="D10" s="9">
-        <v>104.28</v>
+        <v>117.24</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="7">
-        <v>45453</v>
-      </c>
-      <c r="D11" s="9">
-        <v>481.58</v>
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3">
+        <v>45399</v>
+      </c>
+      <c r="D11" s="4">
+        <v>79.209999999999994</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="7">
-        <v>45453</v>
-      </c>
-      <c r="D12" s="9">
-        <v>448.5</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
@@ -675,25 +670,7 @@
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D19" s="5"/>
+      <c r="D16" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/raw/ACH/ACH_Payment.xlsx
+++ b/data/raw/ACH/ACH_Payment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\Finance-Model\data\raw\ACH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\data\raw\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E475A16-EC1A-4ECB-8692-A8010F25F027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589E0532-6A50-411F-BCA1-F4CBE998534C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4480" yWindow="1470" windowWidth="22170" windowHeight="18550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30280" yWindow="580" windowWidth="26800" windowHeight="19510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Amount</t>
   </si>
@@ -53,61 +53,67 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Crystal Clean</t>
-  </si>
-  <si>
-    <t>Ryan, Michele</t>
-  </si>
-  <si>
-    <t>3460 Rockefeller Ct.</t>
-  </si>
-  <si>
-    <t>Bhate</t>
-  </si>
-  <si>
-    <t>CareFirst BlueCross</t>
-  </si>
-  <si>
-    <t>Czysz 2</t>
-  </si>
-  <si>
-    <t>Eventure HR</t>
-  </si>
-  <si>
-    <t>Pace Analytical</t>
-  </si>
-  <si>
-    <t>July '24 rent</t>
-  </si>
-  <si>
-    <t>INV-000074742</t>
-  </si>
-  <si>
-    <t>INV-000074854</t>
-  </si>
-  <si>
-    <t>241550002561</t>
-  </si>
-  <si>
-    <t>18709919</t>
-  </si>
-  <si>
-    <t>July '24 interest</t>
-  </si>
-  <si>
-    <t>INV-000312</t>
-  </si>
-  <si>
-    <t>850597</t>
-  </si>
-  <si>
-    <t>6/18 Hueneme</t>
-  </si>
-  <si>
-    <t>Braddock</t>
-  </si>
-  <si>
-    <t>April El Paso</t>
+    <t>AECOM</t>
+  </si>
+  <si>
+    <t>Aramsco</t>
+  </si>
+  <si>
+    <t>Clean Harbors</t>
+  </si>
+  <si>
+    <t>James T Warring Sons</t>
+  </si>
+  <si>
+    <t>Meridian Analytical</t>
+  </si>
+  <si>
+    <t>The Shipley Group</t>
+  </si>
+  <si>
+    <t>2000899472</t>
+  </si>
+  <si>
+    <t>S6493012.001</t>
+  </si>
+  <si>
+    <t>1005046103</t>
+  </si>
+  <si>
+    <t>1005044730</t>
+  </si>
+  <si>
+    <t>1005044731</t>
+  </si>
+  <si>
+    <t>1005044729</t>
+  </si>
+  <si>
+    <t>180538</t>
+  </si>
+  <si>
+    <t>W4001727</t>
+  </si>
+  <si>
+    <t>EW2447-CECOS</t>
+  </si>
+  <si>
+    <t>CECOS Aug 23</t>
+  </si>
+  <si>
+    <t>EPA May 24</t>
+  </si>
+  <si>
+    <t>NASA Feb 24</t>
+  </si>
+  <si>
+    <t>CCHHW</t>
+  </si>
+  <si>
+    <t>CECOS May 24</t>
+  </si>
+  <si>
+    <t>Scott McConnell Wright Patt</t>
   </si>
 </sst>
 </file>
@@ -118,7 +124,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;\-#,##0.00;* ??"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,12 +139,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -168,29 +168,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -473,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -506,171 +493,157 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3">
+        <v>45455</v>
+      </c>
+      <c r="D2" s="4">
+        <v>21430.83</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3">
+        <v>45448</v>
+      </c>
+      <c r="D3" s="4">
+        <v>736.06</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="8">
-        <v>45471</v>
-      </c>
-      <c r="D2" s="9">
+      <c r="C4" s="3">
+        <v>45343</v>
+      </c>
+      <c r="D4" s="4">
+        <v>13608.43</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3">
+        <v>45434</v>
+      </c>
+      <c r="D5" s="4">
+        <v>8540.25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3">
+        <v>45434</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2558.3200000000002</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3">
+        <v>45434</v>
+      </c>
+      <c r="D7" s="4">
+        <v>22663.119999999999</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45469</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3198.12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3">
+        <v>45453</v>
+      </c>
+      <c r="D9" s="4">
+        <v>551.5</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3">
+        <v>45447</v>
+      </c>
+      <c r="D10" s="4">
         <v>11000</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="8">
-        <v>45377</v>
-      </c>
-      <c r="D3" s="9">
-        <v>18043.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="8">
-        <v>45422</v>
-      </c>
-      <c r="D4" s="9">
-        <v>18043.75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="8">
-        <v>45446</v>
-      </c>
-      <c r="D5" s="9">
-        <v>26980.63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="8">
-        <v>45443</v>
-      </c>
-      <c r="D6" s="9">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="8">
-        <v>45471</v>
-      </c>
-      <c r="D7" s="9">
-        <v>17500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="8">
-        <v>45467</v>
-      </c>
-      <c r="D8" s="9">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="8">
-        <v>45434</v>
-      </c>
-      <c r="D9" s="9">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="8">
-        <v>45460</v>
-      </c>
-      <c r="D10" s="9">
-        <v>117.24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="3">
-        <v>45399</v>
-      </c>
-      <c r="D11" s="4">
-        <v>79.209999999999994</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D16" s="5"/>
+      <c r="E10" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/raw/ACH/ACH_Payment.xlsx
+++ b/data/raw/ACH/ACH_Payment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\data\raw\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589E0532-6A50-411F-BCA1-F4CBE998534C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32983C8-57D9-46F0-8584-D0F3B486E75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30280" yWindow="580" windowWidth="26800" windowHeight="19510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36210" yWindow="1200" windowWidth="35950" windowHeight="19750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Amount</t>
   </si>
@@ -53,12 +53,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>AECOM</t>
-  </si>
-  <si>
-    <t>Aramsco</t>
-  </si>
-  <si>
     <t>Clean Harbors</t>
   </si>
   <si>
@@ -68,52 +62,58 @@
     <t>Meridian Analytical</t>
   </si>
   <si>
-    <t>The Shipley Group</t>
-  </si>
-  <si>
-    <t>2000899472</t>
-  </si>
-  <si>
-    <t>S6493012.001</t>
-  </si>
-  <si>
-    <t>1005046103</t>
-  </si>
-  <si>
-    <t>1005044730</t>
-  </si>
-  <si>
-    <t>1005044731</t>
-  </si>
-  <si>
-    <t>1005044729</t>
-  </si>
-  <si>
     <t>180538</t>
   </si>
   <si>
-    <t>W4001727</t>
-  </si>
-  <si>
-    <t>EW2447-CECOS</t>
-  </si>
-  <si>
-    <t>CECOS Aug 23</t>
-  </si>
-  <si>
-    <t>EPA May 24</t>
-  </si>
-  <si>
-    <t>NASA Feb 24</t>
-  </si>
-  <si>
-    <t>CCHHW</t>
-  </si>
-  <si>
-    <t>CECOS May 24</t>
-  </si>
-  <si>
-    <t>Scott McConnell Wright Patt</t>
+    <t>Bhate</t>
+  </si>
+  <si>
+    <t>BIOLARGO</t>
+  </si>
+  <si>
+    <t>C. Nissley Env</t>
+  </si>
+  <si>
+    <t>DARR EQUIPMENT CO.</t>
+  </si>
+  <si>
+    <t>Della-Volle</t>
+  </si>
+  <si>
+    <t>Eventure HR</t>
+  </si>
+  <si>
+    <t>Wood, Steve</t>
+  </si>
+  <si>
+    <t>INV-000075029-C</t>
+  </si>
+  <si>
+    <t>1460</t>
+  </si>
+  <si>
+    <t>CECOS 6.3-6.7</t>
+  </si>
+  <si>
+    <t>1005091431</t>
+  </si>
+  <si>
+    <t>SWO294500</t>
+  </si>
+  <si>
+    <t>MCLB Albany</t>
+  </si>
+  <si>
+    <t>INV-000338</t>
+  </si>
+  <si>
+    <t>INV-000312</t>
+  </si>
+  <si>
+    <t>W4001841</t>
+  </si>
+  <si>
+    <t>6/25 Seattle - Wood</t>
   </si>
 </sst>
 </file>
@@ -460,16 +460,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.81640625" bestFit="1" customWidth="1"/>
@@ -494,155 +494,165 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3">
-        <v>45455</v>
+        <v>45487</v>
       </c>
       <c r="D2" s="4">
-        <v>21430.83</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>19807.23</v>
+      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3">
-        <v>45448</v>
+        <v>45487</v>
       </c>
       <c r="D3" s="4">
-        <v>736.06</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>7760.4</v>
+      </c>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3">
-        <v>45343</v>
+        <v>45487</v>
       </c>
       <c r="D4" s="4">
-        <v>13608.43</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>6612.33</v>
+      </c>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3">
-        <v>45434</v>
+        <v>45487</v>
       </c>
       <c r="D5" s="4">
-        <v>8540.25</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>7765</v>
+      </c>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3">
-        <v>45434</v>
+        <v>45487</v>
       </c>
       <c r="D6" s="4">
-        <v>2558.3200000000002</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>389.7</v>
+      </c>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3">
-        <v>45434</v>
+        <v>45487</v>
       </c>
       <c r="D7" s="4">
-        <v>22663.119999999999</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>1597.76</v>
+      </c>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3">
-        <v>45469</v>
+        <v>45487</v>
       </c>
       <c r="D8" s="4">
-        <v>3198.12</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C9" s="3">
-        <v>45453</v>
+        <v>45487</v>
       </c>
       <c r="D9" s="4">
-        <v>551.5</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C10" s="3">
-        <v>45447</v>
+        <v>45487</v>
       </c>
       <c r="D10" s="4">
-        <v>11000</v>
-      </c>
-      <c r="E10" s="2" t="s">
+        <v>3198.12</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
+      </c>
+      <c r="C11" s="3">
+        <v>45487</v>
+      </c>
+      <c r="D11">
+        <v>579.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3">
+        <v>45487</v>
+      </c>
+      <c r="D12">
+        <v>434.5</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/ACH/ACH_Payment.xlsx
+++ b/data/raw/ACH/ACH_Payment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\data\raw\ACH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\Finance-Model\data\raw\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32983C8-57D9-46F0-8584-D0F3B486E75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E71E1A-5EFB-41C6-AC44-864530727C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36210" yWindow="1200" windowWidth="35950" windowHeight="19750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39250" yWindow="2840" windowWidth="22640" windowHeight="16450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Amount</t>
   </si>
@@ -53,67 +53,70 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Clean Harbors</t>
-  </si>
-  <si>
-    <t>James T Warring Sons</t>
-  </si>
-  <si>
-    <t>Meridian Analytical</t>
-  </si>
-  <si>
-    <t>180538</t>
-  </si>
-  <si>
-    <t>Bhate</t>
-  </si>
-  <si>
-    <t>BIOLARGO</t>
-  </si>
-  <si>
-    <t>C. Nissley Env</t>
-  </si>
-  <si>
-    <t>DARR EQUIPMENT CO.</t>
-  </si>
-  <si>
-    <t>Della-Volle</t>
-  </si>
-  <si>
-    <t>Eventure HR</t>
-  </si>
-  <si>
-    <t>Wood, Steve</t>
-  </si>
-  <si>
-    <t>INV-000075029-C</t>
-  </si>
-  <si>
-    <t>1460</t>
-  </si>
-  <si>
-    <t>CECOS 6.3-6.7</t>
-  </si>
-  <si>
-    <t>1005091431</t>
-  </si>
-  <si>
-    <t>SWO294500</t>
-  </si>
-  <si>
-    <t>MCLB Albany</t>
-  </si>
-  <si>
-    <t>INV-000338</t>
-  </si>
-  <si>
-    <t>INV-000312</t>
-  </si>
-  <si>
-    <t>W4001841</t>
-  </si>
-  <si>
-    <t>6/25 Seattle - Wood</t>
+    <t>AECOM</t>
+  </si>
+  <si>
+    <t>CohnReznick</t>
+  </si>
+  <si>
+    <t>Crystal Clean</t>
+  </si>
+  <si>
+    <t>Dalmation</t>
+  </si>
+  <si>
+    <t>Eastern</t>
+  </si>
+  <si>
+    <t>GFL ENVIRONMENTAL</t>
+  </si>
+  <si>
+    <t>Lighting Resources</t>
+  </si>
+  <si>
+    <t>MATHESON TRI-GAS</t>
+  </si>
+  <si>
+    <t>SGS</t>
+  </si>
+  <si>
+    <t>2000842390</t>
+  </si>
+  <si>
+    <t>3500336</t>
+  </si>
+  <si>
+    <t>3487129</t>
+  </si>
+  <si>
+    <t>18658566</t>
+  </si>
+  <si>
+    <t>18683323</t>
+  </si>
+  <si>
+    <t>18772489</t>
+  </si>
+  <si>
+    <t>501587</t>
+  </si>
+  <si>
+    <t>714370</t>
+  </si>
+  <si>
+    <t>22361901</t>
+  </si>
+  <si>
+    <t>60-13822</t>
+  </si>
+  <si>
+    <t>0029886730</t>
+  </si>
+  <si>
+    <t>5211045745</t>
+  </si>
+  <si>
+    <t>52110455301</t>
   </si>
 </sst>
 </file>
@@ -168,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -177,8 +180,11 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -460,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E3" sqref="E3:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -493,166 +499,186 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3">
+        <v>45497</v>
+      </c>
+      <c r="D2" s="5">
+        <v>116792.73</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3">
+        <v>45497</v>
+      </c>
+      <c r="D3" s="5">
+        <v>20093.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3">
+        <v>45497</v>
+      </c>
+      <c r="D4" s="5">
+        <v>6218.62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3">
+        <v>45497</v>
+      </c>
+      <c r="D5" s="5">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3">
+        <v>45497</v>
+      </c>
+      <c r="D6" s="5">
+        <v>719.19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3">
+        <v>45497</v>
+      </c>
+      <c r="D7" s="5">
+        <v>643.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45497</v>
+      </c>
+      <c r="D8" s="5">
+        <v>11870</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="3">
-        <v>45487</v>
-      </c>
-      <c r="D2" s="4">
-        <v>19807.23</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3">
+        <v>45497</v>
+      </c>
+      <c r="D9" s="5">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3">
-        <v>45487</v>
-      </c>
-      <c r="D3" s="4">
-        <v>7760.4</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3">
+        <v>45497</v>
+      </c>
+      <c r="D10" s="5">
+        <v>7869.78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="3">
-        <v>45487</v>
-      </c>
-      <c r="D4" s="4">
-        <v>6612.33</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="3">
-        <v>45487</v>
-      </c>
-      <c r="D5" s="4">
-        <v>7765</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3">
+        <v>45497</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3337.57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="3">
-        <v>45487</v>
-      </c>
-      <c r="D6" s="4">
-        <v>389.7</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="B12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3">
+        <v>45497</v>
+      </c>
+      <c r="D12" s="5">
+        <v>337.12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="3">
-        <v>45487</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1597.76</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="3">
-        <v>45487</v>
-      </c>
-      <c r="D8" s="4">
-        <v>2000</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="3">
-        <v>45487</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3">
-        <v>45487</v>
-      </c>
-      <c r="D10" s="4">
-        <v>3198.12</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="3">
-        <v>45487</v>
-      </c>
-      <c r="D11">
-        <v>579.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="3">
-        <v>45487</v>
-      </c>
-      <c r="D12">
-        <v>434.5</v>
+      <c r="C13" s="3">
+        <v>45497</v>
+      </c>
+      <c r="D13" s="5">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="3">
+        <v>45497</v>
+      </c>
+      <c r="D14" s="5">
+        <v>525</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/ACH/ACH_Payment.xlsx
+++ b/data/raw/ACH/ACH_Payment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\Finance-Model\data\raw\ACH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\data\raw\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E71E1A-5EFB-41C6-AC44-864530727C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356B14E4-5CFA-4D48-9868-ED5F0302D805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39250" yWindow="2840" windowWidth="22640" windowHeight="16450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1160" windowWidth="30300" windowHeight="19330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>Amount</t>
   </si>
@@ -53,70 +53,100 @@
     <t>Description</t>
   </si>
   <si>
-    <t>AECOM</t>
-  </si>
-  <si>
-    <t>CohnReznick</t>
-  </si>
-  <si>
-    <t>Crystal Clean</t>
-  </si>
-  <si>
-    <t>Dalmation</t>
-  </si>
-  <si>
-    <t>Eastern</t>
-  </si>
-  <si>
-    <t>GFL ENVIRONMENTAL</t>
-  </si>
-  <si>
-    <t>Lighting Resources</t>
-  </si>
-  <si>
-    <t>MATHESON TRI-GAS</t>
-  </si>
-  <si>
-    <t>SGS</t>
-  </si>
-  <si>
-    <t>2000842390</t>
-  </si>
-  <si>
-    <t>3500336</t>
-  </si>
-  <si>
-    <t>3487129</t>
-  </si>
-  <si>
-    <t>18658566</t>
-  </si>
-  <si>
-    <t>18683323</t>
-  </si>
-  <si>
-    <t>18772489</t>
-  </si>
-  <si>
-    <t>501587</t>
-  </si>
-  <si>
-    <t>714370</t>
-  </si>
-  <si>
-    <t>22361901</t>
-  </si>
-  <si>
-    <t>60-13822</t>
-  </si>
-  <si>
-    <t>0029886730</t>
-  </si>
-  <si>
-    <t>5211045745</t>
-  </si>
-  <si>
-    <t>52110455301</t>
+    <t>BIOLARGO</t>
+  </si>
+  <si>
+    <t>CareFirst BlueCross</t>
+  </si>
+  <si>
+    <t>Clean Harbors</t>
+  </si>
+  <si>
+    <t>Czysz</t>
+  </si>
+  <si>
+    <t>Czysz 2</t>
+  </si>
+  <si>
+    <t>Eventure HR</t>
+  </si>
+  <si>
+    <t>ID Discovery</t>
+  </si>
+  <si>
+    <t>Republic Services</t>
+  </si>
+  <si>
+    <t>Robinson</t>
+  </si>
+  <si>
+    <t>McCrea</t>
+  </si>
+  <si>
+    <t>Sonnier, Eddie</t>
+  </si>
+  <si>
+    <t>Wood, Steve</t>
+  </si>
+  <si>
+    <t>1476</t>
+  </si>
+  <si>
+    <t>241840001503</t>
+  </si>
+  <si>
+    <t>1005105864</t>
+  </si>
+  <si>
+    <t>1005108114</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>CZYSZ INT 3</t>
+  </si>
+  <si>
+    <t>INV-000339</t>
+  </si>
+  <si>
+    <t>HZT2024-006</t>
+  </si>
+  <si>
+    <t>0856-000183845</t>
+  </si>
+  <si>
+    <t>0856-000187005</t>
+  </si>
+  <si>
+    <t>CECOS 6.25-6.27</t>
+  </si>
+  <si>
+    <t>7/14-7/20 Hueneme</t>
+  </si>
+  <si>
+    <t>7.8-7.14 KC SONNIER</t>
+  </si>
+  <si>
+    <t>7.12-7.20 Pt Hueneme</t>
+  </si>
+  <si>
+    <t>7/17-7/20 Willowbrook</t>
+  </si>
+  <si>
+    <t>7/14-7/20 Willowbrook</t>
+  </si>
+  <si>
+    <t>Willowbrook delay</t>
+  </si>
+  <si>
+    <t>Suggs, Mark</t>
+  </si>
+  <si>
+    <t>3460 Rockefeller Ct.</t>
+  </si>
+  <si>
+    <t>rent 7/31/24</t>
   </si>
 </sst>
 </file>
@@ -124,10 +154,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00;\-#,##0.00;* ??"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +180,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -159,7 +202,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -167,27 +210,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -466,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E6"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -477,7 +550,7 @@
     <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -499,186 +572,256 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3">
-        <v>45497</v>
-      </c>
-      <c r="D2" s="5">
-        <v>116792.73</v>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6">
+        <v>45503</v>
+      </c>
+      <c r="D2" s="9">
+        <v>7760.4</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3">
-        <v>45497</v>
-      </c>
-      <c r="D3" s="5">
-        <v>20093.3</v>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="6">
+        <v>45505</v>
+      </c>
+      <c r="D3" s="9">
+        <v>26969.040000000001</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3">
-        <v>45497</v>
-      </c>
-      <c r="D4" s="5">
-        <v>6218.62</v>
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6">
+        <v>45470</v>
+      </c>
+      <c r="D4" s="9">
+        <v>4471.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3">
-        <v>45497</v>
-      </c>
-      <c r="D5" s="5">
-        <v>214</v>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="6">
+        <v>45500</v>
+      </c>
+      <c r="D5" s="9">
+        <v>8094.92</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3">
-        <v>45497</v>
-      </c>
-      <c r="D6" s="5">
-        <v>719.19</v>
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="6">
+        <v>45498</v>
+      </c>
+      <c r="D6" s="9">
+        <v>3600</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="3">
-        <v>45497</v>
-      </c>
-      <c r="D7" s="5">
-        <v>643.51</v>
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="6">
+        <v>45507</v>
+      </c>
+      <c r="D7" s="9">
+        <v>17500</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="3">
-        <v>45497</v>
-      </c>
-      <c r="D8" s="5">
-        <v>11870</v>
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="6">
+        <v>45505</v>
+      </c>
+      <c r="D8" s="9">
+        <v>11436.8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="3">
-        <v>45497</v>
-      </c>
-      <c r="D9" s="5">
-        <v>615</v>
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="6">
+        <v>45503</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1560</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="3">
-        <v>45497</v>
-      </c>
-      <c r="D10" s="5">
-        <v>7869.78</v>
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="6">
+        <v>45412</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1807.08</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="3">
-        <v>45497</v>
-      </c>
-      <c r="D11" s="5">
-        <v>3337.57</v>
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="6">
+        <v>45503</v>
+      </c>
+      <c r="D11" s="9">
+        <v>6168.33</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="3">
-        <v>45497</v>
-      </c>
-      <c r="D12" s="5">
-        <v>337.12</v>
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="6">
+        <v>45504</v>
+      </c>
+      <c r="D12" s="9">
+        <v>11737</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="3">
-        <v>45497</v>
-      </c>
-      <c r="D13" s="5">
-        <v>505</v>
+        <v>28</v>
+      </c>
+      <c r="C13" s="7">
+        <v>45494</v>
+      </c>
+      <c r="D13" s="10">
+        <v>578.99</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="3">
-        <v>45497</v>
-      </c>
-      <c r="D14" s="5">
-        <v>525</v>
+      <c r="A14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="8">
+        <v>45486</v>
+      </c>
+      <c r="D14" s="11">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="8">
+        <v>45489</v>
+      </c>
+      <c r="D15" s="11">
+        <v>536.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="8">
+        <v>45491</v>
+      </c>
+      <c r="D16" s="11">
+        <v>1888.35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="8">
+        <v>45494</v>
+      </c>
+      <c r="D17" s="11">
+        <v>499.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="8">
+        <v>45494</v>
+      </c>
+      <c r="D18" s="11">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="12">
+        <v>45504</v>
+      </c>
+      <c r="D19" s="11">
+        <v>11000</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/ACH/ACH_Payment.xlsx
+++ b/data/raw/ACH/ACH_Payment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\data\raw\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356B14E4-5CFA-4D48-9868-ED5F0302D805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31AF03B-6C78-4ACA-B547-C9720B65D7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1160" windowWidth="30300" windowHeight="19330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1210" yWindow="1090" windowWidth="29070" windowHeight="19470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
   <si>
     <t>Amount</t>
   </si>
@@ -56,97 +56,163 @@
     <t>BIOLARGO</t>
   </si>
   <si>
-    <t>CareFirst BlueCross</t>
-  </si>
-  <si>
     <t>Clean Harbors</t>
   </si>
   <si>
-    <t>Czysz</t>
-  </si>
-  <si>
-    <t>Czysz 2</t>
-  </si>
-  <si>
-    <t>Eventure HR</t>
-  </si>
-  <si>
-    <t>ID Discovery</t>
-  </si>
-  <si>
-    <t>Republic Services</t>
-  </si>
-  <si>
-    <t>Robinson</t>
-  </si>
-  <si>
-    <t>McCrea</t>
-  </si>
-  <si>
-    <t>Sonnier, Eddie</t>
-  </si>
-  <si>
-    <t>Wood, Steve</t>
-  </si>
-  <si>
-    <t>1476</t>
-  </si>
-  <si>
-    <t>241840001503</t>
-  </si>
-  <si>
-    <t>1005105864</t>
-  </si>
-  <si>
-    <t>1005108114</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>CZYSZ INT 3</t>
-  </si>
-  <si>
-    <t>INV-000339</t>
-  </si>
-  <si>
-    <t>HZT2024-006</t>
-  </si>
-  <si>
-    <t>0856-000183845</t>
-  </si>
-  <si>
-    <t>0856-000187005</t>
-  </si>
-  <si>
-    <t>CECOS 6.25-6.27</t>
-  </si>
-  <si>
-    <t>7/14-7/20 Hueneme</t>
-  </si>
-  <si>
-    <t>7.8-7.14 KC SONNIER</t>
-  </si>
-  <si>
-    <t>7.12-7.20 Pt Hueneme</t>
-  </si>
-  <si>
-    <t>7/17-7/20 Willowbrook</t>
-  </si>
-  <si>
-    <t>7/14-7/20 Willowbrook</t>
-  </si>
-  <si>
-    <t>Willowbrook delay</t>
-  </si>
-  <si>
-    <t>Suggs, Mark</t>
-  </si>
-  <si>
-    <t>3460 Rockefeller Ct.</t>
-  </si>
-  <si>
-    <t>rent 7/31/24</t>
+    <t>AECOM</t>
+  </si>
+  <si>
+    <t>Bhate</t>
+  </si>
+  <si>
+    <t>CohnReznick</t>
+  </si>
+  <si>
+    <t>Crystal Clean</t>
+  </si>
+  <si>
+    <t>Dalmation</t>
+  </si>
+  <si>
+    <t>Della-Volle</t>
+  </si>
+  <si>
+    <t>Eastern</t>
+  </si>
+  <si>
+    <t>Fit For Everybody</t>
+  </si>
+  <si>
+    <t>Huber, Louis</t>
+  </si>
+  <si>
+    <t>Materials Handling</t>
+  </si>
+  <si>
+    <t>Maurer, Dr. Robert</t>
+  </si>
+  <si>
+    <t>Meridian Analytical</t>
+  </si>
+  <si>
+    <t>The Shipley Group</t>
+  </si>
+  <si>
+    <t>2000917758</t>
+  </si>
+  <si>
+    <t>2000890173</t>
+  </si>
+  <si>
+    <t>INV-000075070</t>
+  </si>
+  <si>
+    <t>INV-000075193</t>
+  </si>
+  <si>
+    <t>1502</t>
+  </si>
+  <si>
+    <t>1005080170</t>
+  </si>
+  <si>
+    <t>1005127513</t>
+  </si>
+  <si>
+    <t>3504191</t>
+  </si>
+  <si>
+    <t>3507214</t>
+  </si>
+  <si>
+    <t>18786352</t>
+  </si>
+  <si>
+    <t>501600</t>
+  </si>
+  <si>
+    <t>NAS PatuxentRiver,MD</t>
+  </si>
+  <si>
+    <t>714921</t>
+  </si>
+  <si>
+    <t>1059</t>
+  </si>
+  <si>
+    <t>7.14.24 TS Boots</t>
+  </si>
+  <si>
+    <t>5030523696</t>
+  </si>
+  <si>
+    <t>CECOS 6.24-24 RM</t>
+  </si>
+  <si>
+    <t>W4002106</t>
+  </si>
+  <si>
+    <t>W4001514</t>
+  </si>
+  <si>
+    <t>EW2449-CECOS</t>
+  </si>
+  <si>
+    <t>Milestone Inv thru 7.19.24 PO CECOS 24-013 &amp; CECOS 24-017</t>
+  </si>
+  <si>
+    <t>prof services March 2024</t>
+  </si>
+  <si>
+    <t>Fence-to-Fence services period ended 5/31/24</t>
+  </si>
+  <si>
+    <t>Fence-to-Fence services period ended 6/30/24</t>
+  </si>
+  <si>
+    <t>PO B100-001, inv period 7/1-7/31/24</t>
+  </si>
+  <si>
+    <t>NASA - PO HTN-24-3009 -6/12 drum shipment</t>
+  </si>
+  <si>
+    <t>CCHHW - HHW July 2024</t>
+  </si>
+  <si>
+    <t>Prof Tax Services rendered - Jeff Monroe Consulting, LLC</t>
+  </si>
+  <si>
+    <t>CFO Advisory Retainer</t>
+  </si>
+  <si>
+    <t>Jet Fuel Pickup Charge - 00-00RKV78</t>
+  </si>
+  <si>
+    <t>7/8/24 SERVICE CALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAS Patuxent River, MD </t>
+  </si>
+  <si>
+    <t>CUSTOMER 41258 - 7/8/24</t>
+  </si>
+  <si>
+    <t>July 2024</t>
+  </si>
+  <si>
+    <t>reimb TS 7/14/24 boots</t>
+  </si>
+  <si>
+    <t>Hyster Forklift 7/5/24-8/4/24</t>
+  </si>
+  <si>
+    <t>WO# 2406347 - Stormwater</t>
+  </si>
+  <si>
+    <t>WO# 2405142 - Stormwater</t>
+  </si>
+  <si>
+    <t>July 2024 virtual training</t>
   </si>
 </sst>
 </file>
@@ -154,10 +220,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00;\-#,##0.00;* ??"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,19 +246,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -202,7 +255,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -210,57 +263,30 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -539,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -572,256 +598,343 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="5">
+        <v>45505</v>
+      </c>
+      <c r="D2" s="6">
+        <v>48115.9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="5">
+        <v>45519</v>
+      </c>
+      <c r="D3" s="6">
+        <v>123965.23</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5">
+        <v>45498</v>
+      </c>
+      <c r="D4" s="6">
+        <v>27154.55</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="5">
+        <v>45520</v>
+      </c>
+      <c r="D5" s="6">
+        <v>19807.23</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="5">
+        <v>45518</v>
+      </c>
+      <c r="D6" s="6">
+        <v>7760.4</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45509</v>
+      </c>
+      <c r="D7" s="6">
+        <v>719.2</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45519</v>
+      </c>
+      <c r="D8" s="6">
+        <v>11588</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="5">
+        <v>45521</v>
+      </c>
+      <c r="D9" s="6">
+        <v>26800.2</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="5">
+        <v>45523</v>
+      </c>
+      <c r="D10" s="6">
+        <v>6000</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="5">
+        <v>45515</v>
+      </c>
+      <c r="D11" s="6">
+        <v>20</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="5">
+        <v>45511</v>
+      </c>
+      <c r="D12" s="6">
+        <v>795</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="5">
+        <v>45505</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1982.06</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="5">
+        <v>45511</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1266.76</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="5">
+        <v>45511</v>
+      </c>
+      <c r="D15" s="6">
+        <v>4950</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="5">
+        <v>45517</v>
+      </c>
+      <c r="D16" s="6">
+        <v>109.99</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="5">
+        <v>45509</v>
+      </c>
+      <c r="D17" s="6">
+        <v>624.34</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="6">
-        <v>45503</v>
-      </c>
-      <c r="D2" s="9">
-        <v>7760.4</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="B18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="5">
+        <v>45504</v>
+      </c>
+      <c r="D18" s="6">
+        <v>8566.65</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="6">
-        <v>45505</v>
-      </c>
-      <c r="D3" s="9">
-        <v>26969.040000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="B19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="5">
+        <v>45511</v>
+      </c>
+      <c r="D19" s="6">
+        <v>175</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="5">
+        <v>45464</v>
+      </c>
+      <c r="D20" s="6">
+        <v>579.5</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="6">
-        <v>45470</v>
-      </c>
-      <c r="D4" s="9">
-        <v>4471.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="6">
-        <v>45500</v>
-      </c>
-      <c r="D5" s="9">
-        <v>8094.92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="6">
-        <v>45498</v>
-      </c>
-      <c r="D6" s="9">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="6">
-        <v>45507</v>
-      </c>
-      <c r="D7" s="9">
-        <v>17500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="6">
-        <v>45505</v>
-      </c>
-      <c r="D8" s="9">
-        <v>11436.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="6">
-        <v>45503</v>
-      </c>
-      <c r="D9" s="9">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="6">
-        <v>45412</v>
-      </c>
-      <c r="D10" s="9">
-        <v>1807.08</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="6">
-        <v>45503</v>
-      </c>
-      <c r="D11" s="9">
-        <v>6168.33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="6">
-        <v>45504</v>
-      </c>
-      <c r="D12" s="9">
-        <v>11737</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="7">
-        <v>45494</v>
-      </c>
-      <c r="D13" s="10">
-        <v>578.99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="8">
-        <v>45486</v>
-      </c>
-      <c r="D14" s="11">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="8">
-        <v>45489</v>
-      </c>
-      <c r="D15" s="11">
-        <v>536.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="8">
-        <v>45491</v>
-      </c>
-      <c r="D16" s="11">
-        <v>1888.35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="8">
-        <v>45494</v>
-      </c>
-      <c r="D17" s="11">
-        <v>499.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="8">
-        <v>45494</v>
-      </c>
-      <c r="D18" s="11">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="12">
-        <v>45504</v>
-      </c>
-      <c r="D19" s="11">
+      <c r="B21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="5">
+        <v>45512</v>
+      </c>
+      <c r="D21" s="6">
         <v>11000</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/ACH/ACH_Payment.xlsx
+++ b/data/raw/ACH/ACH_Payment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\data\raw\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93510841-09A3-437C-9194-5D62F59B3E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB63B0F-719A-4A37-B3E7-4D175AC7BD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="2790" windowWidth="33630" windowHeight="18050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6460" yWindow="1960" windowWidth="31840" windowHeight="18050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
   <si>
     <t>Amount</t>
   </si>
@@ -53,25 +53,237 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Eurofins</t>
-  </si>
-  <si>
-    <t>00211947</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Environmental Testing</t>
+    <t>AECOM</t>
+  </si>
+  <si>
+    <t>Bhate</t>
+  </si>
+  <si>
+    <t>BIOLARGO</t>
+  </si>
+  <si>
+    <t>C. Nissley Env</t>
+  </si>
+  <si>
+    <t>CareFirst BlueCross</t>
+  </si>
+  <si>
+    <t>Clean Harbors</t>
+  </si>
+  <si>
+    <t>CohnReznick</t>
+  </si>
+  <si>
+    <t>Crystal Clean</t>
+  </si>
+  <si>
+    <t>Czysz</t>
+  </si>
+  <si>
+    <t>Czysz 2</t>
+  </si>
+  <si>
+    <t>Della-Volle</t>
+  </si>
+  <si>
+    <t>Foxall</t>
+  </si>
+  <si>
+    <t>Hebert, K</t>
+  </si>
+  <si>
+    <t>Lighting Resources</t>
+  </si>
+  <si>
+    <t>MATHESON TRI-GAS</t>
+  </si>
+  <si>
+    <t>McCrea</t>
+  </si>
+  <si>
+    <t>Meridian Analytical</t>
+  </si>
+  <si>
+    <t>SGS</t>
+  </si>
+  <si>
+    <t>Sonnier, Eddie</t>
+  </si>
+  <si>
+    <t>SudZero</t>
+  </si>
+  <si>
+    <t>Oct'24 rent</t>
+  </si>
+  <si>
+    <t>2000904276</t>
+  </si>
+  <si>
+    <t>2000933844</t>
+  </si>
+  <si>
+    <t>INV-000075391</t>
+  </si>
+  <si>
+    <t>INV-000075393</t>
+  </si>
+  <si>
+    <t>INV-000075392</t>
+  </si>
+  <si>
+    <t>1509</t>
+  </si>
+  <si>
+    <t>08/19/2024</t>
+  </si>
+  <si>
+    <t>242460001800</t>
+  </si>
+  <si>
+    <t>1005146659</t>
+  </si>
+  <si>
+    <t>1005173166</t>
+  </si>
+  <si>
+    <t>3517560</t>
+  </si>
+  <si>
+    <t>18837495</t>
+  </si>
+  <si>
+    <t>18837496</t>
+  </si>
+  <si>
+    <t>18863899</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>INT 5</t>
+  </si>
+  <si>
+    <t>MCAS BEAUFORT, SC</t>
+  </si>
+  <si>
+    <t>8/15/24</t>
+  </si>
+  <si>
+    <t>reimb w/e 9.13.24</t>
+  </si>
+  <si>
+    <t>60-14286</t>
+  </si>
+  <si>
+    <t>0030177324</t>
+  </si>
+  <si>
+    <t>08/20/2024</t>
+  </si>
+  <si>
+    <t>8/26/2024</t>
+  </si>
+  <si>
+    <t>W4002545 and W400255</t>
+  </si>
+  <si>
+    <t>52110458820</t>
+  </si>
+  <si>
+    <t>Aug'24 office cleani</t>
+  </si>
+  <si>
+    <t>prof services 5/1-5/31/24</t>
+  </si>
+  <si>
+    <t>7/20-8/30/24</t>
+  </si>
+  <si>
+    <t>Billing period 7/01/24 - 7/31/24</t>
+  </si>
+  <si>
+    <t>7/-7/31/24</t>
+  </si>
+  <si>
+    <t>Billing period 8/01/24 - 8/31/24</t>
+  </si>
+  <si>
+    <t>PO B100-001, inv period 8/1-8/31/24</t>
+  </si>
+  <si>
+    <t>8.12-8.15.24 - Nissley</t>
+  </si>
+  <si>
+    <t>Oct'24</t>
+  </si>
+  <si>
+    <t>NASA, JSC-SCTF Labpack Acid, Organics for Incineration</t>
+  </si>
+  <si>
+    <t>Drum Shipments 4/17 - reviewed/approved by RB</t>
+  </si>
+  <si>
+    <t>July 2024</t>
+  </si>
+  <si>
+    <t>jet fuel pickup 8/9 DC</t>
+  </si>
+  <si>
+    <t>jet fuel pickup - DC</t>
+  </si>
+  <si>
+    <t>Used oil pickup charge</t>
+  </si>
+  <si>
+    <t>AEM Course USCG San Diego 8/12/24 - 8/16/24</t>
+  </si>
+  <si>
+    <t>AEM Course USCG Norfolk 9/9 - 9/13/24</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>Reimbursement 8/12/24-8/15/24</t>
+  </si>
+  <si>
+    <t>E Waste, Wet Lead Acid Batteries</t>
+  </si>
+  <si>
+    <t>Cylinder rental Aug '24</t>
+  </si>
+  <si>
+    <t>travel - Guam</t>
+  </si>
+  <si>
+    <t>travel - San Diego</t>
+  </si>
+  <si>
+    <t>Stormwater 08.13.2024 - 2 invoices W4002545 and W4002551</t>
+  </si>
+  <si>
+    <t>Joint Base McGuire Dix Min. Job</t>
+  </si>
+  <si>
+    <t>travel - Pearl Harbor</t>
+  </si>
+  <si>
+    <t>3460 Rockefeller Ct.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;\-#,##0.00;* ??"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,23 +301,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -125,36 +324,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -433,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -466,150 +658,496 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="4">
+        <v>45566</v>
+      </c>
+      <c r="D2" s="5">
+        <v>11000</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="4">
+        <v>45559</v>
+      </c>
+      <c r="D3" s="5">
+        <v>120642.05</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4">
+        <v>45548</v>
+      </c>
+      <c r="D4" s="5">
+        <v>23972.53</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5">
-        <v>45539</v>
-      </c>
-      <c r="D2" s="6">
-        <v>127.1</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4">
+        <v>45563</v>
+      </c>
+      <c r="D5" s="5">
+        <v>19807.23</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4">
+        <v>45563</v>
+      </c>
+      <c r="D6" s="5">
+        <v>68741.45</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4">
+        <v>45563</v>
+      </c>
+      <c r="D7" s="5">
+        <v>19807.23</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8"/>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="4">
+        <v>45550</v>
+      </c>
+      <c r="D8" s="5">
+        <v>7760.4</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8"/>
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="4">
+        <v>45524</v>
+      </c>
+      <c r="D9" s="5">
+        <v>6150.64</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8"/>
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="4">
+        <v>45567</v>
+      </c>
+      <c r="D10" s="5">
+        <v>31719.360000000001</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8"/>
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4">
+        <v>45565</v>
+      </c>
+      <c r="D11" s="5">
+        <v>628.61</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8"/>
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="4">
+        <v>45567</v>
+      </c>
+      <c r="D12" s="5">
+        <v>18883.240000000002</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8"/>
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="4">
+        <v>45550</v>
+      </c>
+      <c r="D13" s="5">
+        <v>32582.81</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="4">
+        <v>45535</v>
+      </c>
+      <c r="D14" s="5">
+        <v>40</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="4">
+        <v>45543</v>
+      </c>
+      <c r="D15" s="5">
+        <v>122</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
+      <c r="A16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="4">
+        <v>45557</v>
+      </c>
+      <c r="D16" s="5">
+        <v>28.5</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="4">
+        <v>45550</v>
+      </c>
+      <c r="D17" s="5">
+        <v>3600</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="4">
+        <v>45553</v>
+      </c>
+      <c r="D18" s="5">
+        <v>3600</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="4">
+        <v>45566</v>
+      </c>
+      <c r="D19" s="5">
+        <v>17500</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="4">
+        <v>45549</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2030.42</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="4">
+        <v>45549</v>
+      </c>
+      <c r="D21" s="5">
+        <v>5599.2</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="4">
+        <v>45549</v>
+      </c>
+      <c r="D22" s="5">
+        <v>3082.2</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="4">
+        <v>45562</v>
+      </c>
+      <c r="D23" s="5">
+        <v>5152</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="4">
+        <v>45555</v>
+      </c>
+      <c r="D24" s="5">
+        <v>370.37</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="4">
+        <v>45525</v>
+      </c>
+      <c r="D25" s="5">
+        <v>802.51</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="4">
+        <v>45532</v>
+      </c>
+      <c r="D26" s="5">
+        <v>540.69000000000005</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="4">
+        <v>45547</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1013.5</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="4">
+        <v>45554</v>
+      </c>
+      <c r="D28" s="5">
+        <v>375</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="4">
+        <v>45531</v>
+      </c>
+      <c r="D29" s="5">
+        <v>863.5</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="4">
+        <v>45565</v>
+      </c>
+      <c r="D30" s="5">
+        <v>500</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/raw/ACH/ACH_Payment.xlsx
+++ b/data/raw/ACH/ACH_Payment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\data\raw\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FC34E1-BE70-49AA-AA29-1B1C254386E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF29A055-0783-4EDD-A661-00DC59C9D8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24250" yWindow="1390" windowWidth="22070" windowHeight="19300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37080" yWindow="720" windowWidth="32570" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="50">
   <si>
     <t>Amount</t>
   </si>
@@ -53,13 +53,139 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Reising</t>
-  </si>
-  <si>
-    <t>9/16/24  - Reising</t>
-  </si>
-  <si>
-    <t>9/16/24 -  2</t>
+    <t>AFCE-21-01-30</t>
+  </si>
+  <si>
+    <t>AECOM</t>
+  </si>
+  <si>
+    <t>American Hazmat Rent</t>
+  </si>
+  <si>
+    <t>Bhate</t>
+  </si>
+  <si>
+    <t>Crystal Clean</t>
+  </si>
+  <si>
+    <t>McCrea</t>
+  </si>
+  <si>
+    <t>11/5/2024</t>
+  </si>
+  <si>
+    <t>Wood, Steve</t>
+  </si>
+  <si>
+    <t>2000930999</t>
+  </si>
+  <si>
+    <t>2000959045</t>
+  </si>
+  <si>
+    <t>INV-000075610</t>
+  </si>
+  <si>
+    <t>19002358</t>
+  </si>
+  <si>
+    <t>HYG Financial Services</t>
+  </si>
+  <si>
+    <t>5031998575</t>
+  </si>
+  <si>
+    <t>James Reed &amp; Associa</t>
+  </si>
+  <si>
+    <t>2411557</t>
+  </si>
+  <si>
+    <t>Matheson Tri-Gas Inc</t>
+  </si>
+  <si>
+    <t>30635914</t>
+  </si>
+  <si>
+    <t>11/11</t>
+  </si>
+  <si>
+    <t>0856-000191630</t>
+  </si>
+  <si>
+    <t>Michelle Ryan</t>
+  </si>
+  <si>
+    <t>11/13/24</t>
+  </si>
+  <si>
+    <t>The Shipley Group</t>
+  </si>
+  <si>
+    <t>EW2448</t>
+  </si>
+  <si>
+    <t>EW2450-CECOS</t>
+  </si>
+  <si>
+    <t>UniFirst Corporation</t>
+  </si>
+  <si>
+    <t>1690240426</t>
+  </si>
+  <si>
+    <t>1690240410</t>
+  </si>
+  <si>
+    <t>1690240411</t>
+  </si>
+  <si>
+    <t>1690240412</t>
+  </si>
+  <si>
+    <t>1690240413</t>
+  </si>
+  <si>
+    <t>1690240414</t>
+  </si>
+  <si>
+    <t>1690240415</t>
+  </si>
+  <si>
+    <t>1690240417</t>
+  </si>
+  <si>
+    <t>1690240418</t>
+  </si>
+  <si>
+    <t>1690240419</t>
+  </si>
+  <si>
+    <t>1690240420</t>
+  </si>
+  <si>
+    <t>1690240421</t>
+  </si>
+  <si>
+    <t>1690240422</t>
+  </si>
+  <si>
+    <t>1690240423</t>
+  </si>
+  <si>
+    <t>1690240424</t>
+  </si>
+  <si>
+    <t>1690240425</t>
+  </si>
+  <si>
+    <t>Republic</t>
+  </si>
+  <si>
+    <t>Evolve</t>
+  </si>
+  <si>
+    <t>Adobe Connect</t>
   </si>
 </sst>
 </file>
@@ -87,7 +213,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -126,9 +252,7 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -441,21 +565,531 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3">
+        <v>45541</v>
+      </c>
+      <c r="D2" s="4">
+        <v>6125.9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3">
+        <v>45618</v>
+      </c>
+      <c r="D3" s="4">
+        <v>15706.81</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C4" s="3">
+        <v>45566</v>
+      </c>
+      <c r="D4" s="4">
+        <v>9500</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3">
+        <v>45583</v>
+      </c>
+      <c r="D5" s="4">
+        <v>35026</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3">
+        <v>45604</v>
+      </c>
+      <c r="D6" s="4">
+        <v>734.15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3">
+        <v>45601</v>
+      </c>
+      <c r="D7" s="4">
+        <v>661.44</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45604</v>
+      </c>
+      <c r="D8" s="4">
+        <v>390</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3">
+        <v>45597</v>
+      </c>
+      <c r="D9" s="4">
+        <v>370.37</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3">
+        <v>45607</v>
+      </c>
+      <c r="D10" s="4">
+        <v>546.38</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3">
+        <v>45597</v>
+      </c>
+      <c r="D11" s="4">
+        <v>10130.83</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="3">
+        <v>45609</v>
+      </c>
+      <c r="D12" s="4">
+        <v>203.25</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3">
+        <v>45597</v>
+      </c>
+      <c r="D13" s="4">
+        <v>11000</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3">
+        <v>45597</v>
+      </c>
+      <c r="D14" s="4">
+        <v>11000</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="3">
+        <v>45602</v>
+      </c>
+      <c r="D15" s="4">
+        <v>33.25</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="3">
+        <v>45602</v>
+      </c>
+      <c r="D16" s="4">
+        <v>33.25</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="3">
+        <v>45602</v>
+      </c>
+      <c r="D17" s="4">
+        <v>6.65</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="3">
+        <v>45602</v>
+      </c>
+      <c r="D18" s="4">
+        <v>8.75</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="3">
+        <v>45602</v>
+      </c>
+      <c r="D19" s="4">
+        <v>8.75</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="3">
+        <v>45602</v>
+      </c>
+      <c r="D20" s="4">
+        <v>26.25</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="3">
+        <v>45602</v>
+      </c>
+      <c r="D21" s="4">
+        <v>61.25</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3">
+        <v>45602</v>
+      </c>
+      <c r="D22" s="4">
+        <v>61.25</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="3">
+        <v>45602</v>
+      </c>
+      <c r="D23" s="4">
+        <v>8.75</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="3">
+        <v>45602</v>
+      </c>
+      <c r="D24" s="4">
+        <v>33.25</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="3">
+        <v>45602</v>
+      </c>
+      <c r="D25" s="4">
+        <v>19.25</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="3">
+        <v>45602</v>
+      </c>
+      <c r="D26" s="4">
+        <v>19.25</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="3">
+        <v>45602</v>
+      </c>
+      <c r="D27" s="4">
+        <v>19.25</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="3">
+        <v>45602</v>
+      </c>
+      <c r="D28" s="4">
+        <v>22.75</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="3">
+        <v>45602</v>
+      </c>
+      <c r="D29" s="4">
         <v>7</v>
       </c>
-      <c r="C2" s="3">
-        <v>45551</v>
-      </c>
-      <c r="D2" s="4">
-        <v>2000</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
+      <c r="E29" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="3">
+        <v>45602</v>
+      </c>
+      <c r="D30" s="4">
+        <v>8.75</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="3">
+        <v>45601</v>
+      </c>
+      <c r="D31" s="4">
+        <v>215</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2712</v>
+      </c>
+      <c r="C32" s="5">
+        <v>45622</v>
+      </c>
+      <c r="D32" s="4">
+        <v>5744.76</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
